--- a/all_tender_details.xlsx
+++ b/all_tender_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Backup\Web Scrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AFA77A-FE2E-4C26-986A-42969A200C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE29DC74-999C-43D4-A4C0-61493F82B682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,14 +869,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="48.26953125" customWidth="1"/>
+    <col min="1" max="1" width="58.453125" customWidth="1"/>
+    <col min="2" max="2" width="61.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
